--- a/biology/Botanique/Grevillea_confertifolia/Grevillea_confertifolia.xlsx
+++ b/biology/Botanique/Grevillea_confertifolia/Grevillea_confertifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevillea confertifolia est une espèce d'arbuste de la famille des Proteaceae endémique de la région des Grampians au Victoria en Australie.
 Il a généralement un port peu étalé ou dressé, atteignant jusqu'à 1 mètre de haut. Les feuilles sont linéaires ou oblongues elliptiques. Les fleurs apparaissent entre août et décembre (de la fin de l'hiver au début de l'été) dans son aire d'origine. Elles ont un périanthe pourpre avec un style rose ou mauve.
